--- a/data/georgia_census/imereti/samtredia/age_dependency.xlsx
+++ b/data/georgia_census/imereti/samtredia/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FCA105C-F66A-49D5-B867-B60969B4A52B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B92F1400-480F-4B37-AE73-BF5B2FF45FE0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{549FEB9D-E9C5-4ABD-87D3-8072C364755E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{299A9409-D6DE-4AF1-98A5-BE39548E9019}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62875DE-67D3-413C-9BD7-E6A0D281C00E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00AAF58-07FF-4219-B0C2-ED0902752399}"/>
 </file>